--- a/medicine/Hématologie/Hémochromatose_de_type_1/Hémochromatose_de_type_1.xlsx
+++ b/medicine/Hématologie/Hémochromatose_de_type_1/Hémochromatose_de_type_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémochromatose de type 1 ou hémochromatose classique, par mutation du gène HFE, est une maladie génétique caractérisée par une hyperabsorption du fer par l'intestin entraînant son accumulation dans l'organisme, préférentiellement au niveau de certains tissus et organes. C'est l'une des maladies génétiques les plus fréquentes dans les populations originaires d'Europe du Nord.
 Il existe d'autres formes d'hémochromatose (types 2a, 2b, 3 et 4), en particulier des formes pouvant s'exprimer dès l'enfance (hémochromatoses dites « juvéniles ») mais il s'agit de maladies rarissimes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique et cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine génétique de cette maladie est mise en évidence par Marcel Simon et ses collaborateurs à Rennes en 1976[1]. L'hémochromatose de type I est due à une mutation du gène HFE situé sur le locus p21.3 du chromosome 6. Cette mutation HFE C282Y a été découverte aux États-Unis en 1996 par l'équipe du professeur John N. Feder[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine génétique de cette maladie est mise en évidence par Marcel Simon et ses collaborateurs à Rennes en 1976. L'hémochromatose de type I est due à une mutation du gène HFE situé sur le locus p21.3 du chromosome 6. Cette mutation HFE C282Y a été découverte aux États-Unis en 1996 par l'équipe du professeur John N. Feder.
 Cette mutation, C282Y, responsable de la plupart des cas d’hémochromatose en Europe (HFE C282Y) semble avoir pour origine un événement unique. Elle serait apparue il y a environ 4 000-4 500 ans, soit vers [2000 av. J.-C. sur le chromosome transportant HLA-A3 et B7 d'un habitant celte de l'Europe préhistorique.
 Elle est donc souvent décrite comme une mutation celtique dont on pense que l’origine se situe à l'époque du Néolithique, dans une population située autrefois en Europe centrale et dont la diffusion vers l'Ouest et le Nord de l'Europe s'est produite par les mouvements de population.
 Il a également été suggéré que les migrations des Vikings ont été, bien plus tard, durant le haut Moyen Âge, au cours de « la période Viking » (env. 793-1066), en grande partie responsables de la distribution de cette mutation néolithique durant leurs expéditions lointaines dans des contrées aussi diverses que les pays riverains de la mer Méditerranée, la Russie ou les pays traversés par les grands fleuves qu'ils ont parcourus, comme le Danube.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission est de type autosomique récessive : cela signifie que pour être malade il faut que les deux copies du gène HFE portent une mutation (on parle alors de sujet homozygote pour la mutation). La fréquence des hétérozygotes dans certaines régions d'Europe de l’Ouest explique la concentration des patients dans ces régions. Si les deux parents sont hétérozygotes, il y aura, statistiquement, un enfant sur quatre qui sera homozygote.
-Les patients ayant la mutation à l'état homozygote (les 2 copies du gène sont mutées) peuvent développer une hémochromatose dans sa forme classique. Les patients hétérozygotes (1 seule copie du gène muté) n'ont pas de signe clinique mais peuvent transmettre la mutation à leur descendance. Cette mutation a une pénétrance assez faible : ainsi moins de la moitié des homozygotes ont une surcharge en fer et moins d'un tiers ont une atteinte clinique d'hémochromatose[3].
+Les patients ayant la mutation à l'état homozygote (les 2 copies du gène sont mutées) peuvent développer une hémochromatose dans sa forme classique. Les patients hétérozygotes (1 seule copie du gène muté) n'ont pas de signe clinique mais peuvent transmettre la mutation à leur descendance. Cette mutation a une pénétrance assez faible : ainsi moins de la moitié des homozygotes ont une surcharge en fer et moins d'un tiers ont une atteinte clinique d'hémochromatose.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémochromatose est la première maladie génétique en France (en fréquence), avec une incidence estimée à 3 pour 1 000 naissances.
 Les manifestations cliniques sont tardives, au-delà de 40 ans. Elles sont en effet liées au retentissement de la surcharge en fer sur certains tissus et organes et cette surcharge ne se met en place que lentement. Du fait des pertes menstruelles (règles) et des grossesses qui font perdre beaucoup de fer, la maladie s'exprime plus tardivement et moins sévèrement chez les femmes que chez les hommes.
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,19 +644,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clinique
-L'association des symptômes, quand ils sont tous présents, est en soi évocatrice d'hémochromatose mais le diagnostic n'est pas toujours facile à évoquer cliniquement chez les sujets jeunes. La mélanodermie, discrète au début, est par exemple souvent interprétée comme une coloration normale de la peau par le patient compte tenu de son caractère ancien. D'autres symptômes (asthénie, douleurs articulaires) sont à la fois fréquents dans la population générale et non spécifiques.
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association des symptômes, quand ils sont tous présents, est en soi évocatrice d'hémochromatose mais le diagnostic n'est pas toujours facile à évoquer cliniquement chez les sujets jeunes. La mélanodermie, discrète au début, est par exemple souvent interprétée comme une coloration normale de la peau par le patient compte tenu de son caractère ancien. D'autres symptômes (asthénie, douleurs articulaires) sont à la fois fréquents dans la population générale et non spécifiques.
 Souvent ce sont en fait les anomalies biologiques qui feront évoquer le diagnostic.
-Biologique
-Certaines anomalies non spécifiques, élévation des transaminases hépatiques en particulier, peuvent faire évoquer ce diagnostic.
-L'étude du bilan martial va confirmer la surcharge en fer : augmentation de la concentration du fer sérique (dépassant 30 µmol/l) et du coefficient de saturation de la transferrine (supérieur à 45 % pouvant atteindre 80 à 100 %). La ferritine plasmatique est augmentée proportionnellement à l'intensité de la surcharge en fer de l'organisme. Le risque de survenue des complications viscérales est corrélé à l'importance du taux de ferritine.
-Imagerie
-L'imagerie par résonance magnétique permet, d'une part, d'évaluer plus précisément la surcharge en fer des organes (notamment du foie) de façon moins invasive que la biopsie ; d'autre part, de surveiller les pathologies secondaires à l'hémochromatose : hépatomégalie, cirrhose, carcinome hépatocellulaire et splénomégalie.
-Différentiel
-Avec les autres types d'hémochromatose :
-Génétique
-Le diagnostic génétique est facile. Il se fait à partir d'un simple prélèvement sanguin. Les mutations C282Y et H63D sont recherchées directement par des techniques de biologie moléculaire et cet examen se fait maintenant en routine dans de nombreux laboratoires. En particulier, la recherche de la mutation C282Y s'effectue par une amplification de la séquence ADN du patient via une PCR. Ensuite l'enzyme RsaI va cliver la séquence en deux fragments si la personne est saine, et en trois fragments si la personne possède la mutation. On observe le résultat du clivage par électrophorèse sur gel d'acrylamide (de préférence pour avoir une bonne résolution). En cas de négativité du test, d'autres mutations, beaucoup plus rares, peuvent être recherchées.
-Pour information : les examens de ce type ne sont pas tous pris en charge par les organismes de sécurité sociale, coût : environ 60 euros (2013).
 </t>
         </is>
       </c>
@@ -649,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,13 +677,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Évolution</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plupart des sujets homozygotes pour la mutation C282Y ne présentent aucun signe clinique et n'évolueront pas vers la maladie en particulier si est mis en place, en cas de surcharge en fer significative, un programme de saignée.
-Le risque d'atteinte du foie et de survenue d'un hépatocarcinome est multiplié par quatre par rapport à une population sans hémochromatose[4] mais le risque absolu reste cependant faible[5].
+          <t>Biologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines anomalies non spécifiques, élévation des transaminases hépatiques en particulier, peuvent faire évoquer ce diagnostic.
+L'étude du bilan martial va confirmer la surcharge en fer : augmentation de la concentration du fer sérique (dépassant 30 µmol/l) et du coefficient de saturation de la transferrine (supérieur à 45 % pouvant atteindre 80 à 100 %). La ferritine plasmatique est augmentée proportionnellement à l'intensité de la surcharge en fer de l'organisme. Le risque de survenue des complications viscérales est corrélé à l'importance du taux de ferritine.
 </t>
         </is>
       </c>
@@ -681,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,13 +715,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">En dehors des causes secondaires, de diagnostic évident, il faudra, en l'absence de mutation du gène HFE, rechercher les mutations des autres gènes impliqués dans les hémochromatoses.
-Une mutation du gène HFE peut venir aggraver une hémochromatose secondaire : accumulation du fer plus rapide, par exemple, chez un patient par ailleurs régulièrement transfusé.
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imagerie par résonance magnétique permet, d'une part, d'évaluer plus précisément la surcharge en fer des organes (notamment du foie) de façon moins invasive que la biopsie ; d'autre part, de surveiller les pathologies secondaires à l'hémochromatose : hépatomégalie, cirrhose, carcinome hépatocellulaire et splénomégalie.
 </t>
         </is>
       </c>
@@ -713,7 +737,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
+          <t>Hémochromatose_de_type_1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -728,55 +752,237 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec les autres types d'hémochromatose :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic génétique est facile. Il se fait à partir d'un simple prélèvement sanguin. Les mutations C282Y et H63D sont recherchées directement par des techniques de biologie moléculaire et cet examen se fait maintenant en routine dans de nombreux laboratoires. En particulier, la recherche de la mutation C282Y s'effectue par une amplification de la séquence ADN du patient via une PCR. Ensuite l'enzyme RsaI va cliver la séquence en deux fragments si la personne est saine, et en trois fragments si la personne possède la mutation. On observe le résultat du clivage par électrophorèse sur gel d'acrylamide (de préférence pour avoir une bonne résolution). En cas de négativité du test, d'autres mutations, beaucoup plus rares, peuvent être recherchées.
+Pour information : les examens de ce type ne sont pas tous pris en charge par les organismes de sécurité sociale, coût : environ 60 euros (2013).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des sujets homozygotes pour la mutation C282Y ne présentent aucun signe clinique et n'évolueront pas vers la maladie en particulier si est mis en place, en cas de surcharge en fer significative, un programme de saignée.
+Le risque d'atteinte du foie et de survenue d'un hépatocarcinome est multiplié par quatre par rapport à une population sans hémochromatose mais le risque absolu reste cependant faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors des causes secondaires, de diagnostic évident, il faudra, en l'absence de mutation du gène HFE, rechercher les mutations des autres gènes impliqués dans les hémochromatoses.
+Une mutation du gène HFE peut venir aggraver une hémochromatose secondaire : accumulation du fer plus rapide, par exemple, chez un patient par ailleurs régulièrement transfusé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des recommandations internationales sur la prise en charge de la maladie ; les dernières datent de 2018 et recommandent de débuter le traitement pour des taux de ferritine supérieurs à 200 µg/L chez la femme ou 300 µg/L chez l'homme et un coefficient de saturation de la transferrine supérieur à 45% (Therapeutic recommendations in HFE hemochromatosis for p.Cys282Tyr (C282Y/C282Y) homozygous genotype.              
-Adams P, Altes A, Brissot P, Butzeck B, Cabantchik I, Cançado R, Distante S, Evans P, Evans R, Ganz T, Girelli D, Hultcrantz R, McLaren G, Marris B, Milman N, Nemeth E, Nielsen P, Pineau B, Piperno A, Porto G, Prince D, Ryan J, Sanchez M, Santos P, Swinkels D, Teixeira E, Toska K, Vanclooster A, White D; Contributors and Hemochromatosis International Taskforce.        Hepatol Int. 2018 Mar;12(2):83-86. doi: 10.1007/s12072-018-9855-0. Epub 2018 Mar 27. PMID 29589198 )[6].
+Adams P, Altes A, Brissot P, Butzeck B, Cabantchik I, Cançado R, Distante S, Evans P, Evans R, Ganz T, Girelli D, Hultcrantz R, McLaren G, Marris B, Milman N, Nemeth E, Nielsen P, Pineau B, Piperno A, Porto G, Prince D, Ryan J, Sanchez M, Santos P, Swinkels D, Teixeira E, Toska K, Vanclooster A, White D; Contributors and Hemochromatosis International Taskforce.        Hepatol Int. 2018 Mar;12(2):83-86. doi: 10.1007/s12072-018-9855-0. Epub 2018 Mar 27. PMID 29589198 ).
 L'efficacité des traitements est grandement majorée par la découverte précoce de la maladie. Mis en place avant les symptômes graves, ils retardent voire empêchent leur apparition. Malheureusement une fois les symptômes hépatiques et rhumatismaux apparus, l'évolution est parfois moins favorable. Ils devront être pris en charge par d'autres traitements spécifiques des symptômes.
 Le traitement principal est représenté par des saignées (phlébotomie) qui restent, à l'heure actuelle, le seul traitement véritablement efficace. On distingue « un traitement d'attaque » (saignées toutes les semaines ou tous les 15 jours jusqu'à normalisation du bilan martial), puis un « traitement d'entretien » (saignées régulières dont la périodicité sera adaptée à l'importance de la surcharge en fer. Le volume des saignées correspond habituellement à celui d'un don du sang (250 à 400 ml)).
 Le but est la normalisation de la ferritinémie et de la saturation de la transferrine afin d'éviter l'évolution vers les complications viscérales. Certains conseillent le maintien d'un taux bas de ferritine (inférieur à 20 μg/l).
-Les valeurs basses conseillées ont été revues à la hausse entre 2004 et 2006. Et en 2010, la valeur cible était une ferritinémie inférieure à 50 μg/l[réf. nécessaire]. L'atteinte hépatique peut ainsi régresser sous ce type de traitement[7].
-Les autres traitements ont une efficacité modérée mais représentent un complément ou une alternative en cas de mauvaise tolérance des saignées par le patient (anémie, mauvais capital veineux). Il consiste en l'absorption de chélateur du fer : La desferrioxamine[8] par injection sous-cutané. Cependant des précautions doivent être prises avant la prescription. Notamment : l'absence de grossesse et l'activité rénale par une surveillance de la créatinine. Il existe aussi des techniques basées sur l'érythraphérèse[9] (retrait uniquement des hématies et réinjection du plasma et des autres cellules) cependant l'appareillage nécessaire est très coûteux et peu d'établissements en disposent pour ce type de traitement.
+Les valeurs basses conseillées ont été revues à la hausse entre 2004 et 2006. Et en 2010, la valeur cible était une ferritinémie inférieure à 50 μg/l[réf. nécessaire]. L'atteinte hépatique peut ainsi régresser sous ce type de traitement.
+Les autres traitements ont une efficacité modérée mais représentent un complément ou une alternative en cas de mauvaise tolérance des saignées par le patient (anémie, mauvais capital veineux). Il consiste en l'absorption de chélateur du fer : La desferrioxamine par injection sous-cutané. Cependant des précautions doivent être prises avant la prescription. Notamment : l'absence de grossesse et l'activité rénale par une surveillance de la créatinine. Il existe aussi des techniques basées sur l'érythraphérèse (retrait uniquement des hématies et réinjection du plasma et des autres cellules) cependant l'appareillage nécessaire est très coûteux et peu d'établissements en disposent pour ce type de traitement.
 Certains symptômes de la maladie se traduisent par des douleurs rhumatismales et abdominales, celles-ci pouvant être traitées par des antalgiques et anti-inflammatoires. Cependant, au vu des atteintes hépatiques potentielles ou avérées, il est particulièrement important d'éviter les antalgiques hépato-toxiques (tel que le paracétamol) et les glucocorticoïdes).
-Un régime pauvre en fer est généralement recommandé mais l'efficacité réelle de ce type de régime n'a pas été évaluée[10].
-Recherche
-Des travaux de recherche[11] ont, en 2001, mis en évidence une hormone peptidique, sécrétée par le foie, qui inhibe l'absorption du fer alimentaire et son recyclage dans l'organisme en agissant sur les complexes ferroportines présents sur les entérocytes et les macrophages : l'hepcidine. La sécrétion de celle-ci est souvent altérée chez les patients atteint d'hémochromatose héréditaire.
+Un régime pauvre en fer est généralement recommandé mais l'efficacité réelle de ce type de régime n'a pas été évaluée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des travaux de recherche ont, en 2001, mis en évidence une hormone peptidique, sécrétée par le foie, qui inhibe l'absorption du fer alimentaire et son recyclage dans l'organisme en agissant sur les complexes ferroportines présents sur les entérocytes et les macrophages : l'hepcidine. La sécrétion de celle-ci est souvent altérée chez les patients atteint d'hémochromatose héréditaire.
 Les tentatives de synthèse artificielle de l'hepcidine ont pour le moment échoué car la molécule (un peptide de 25 acides aminés) présente quatre ponts disulfures qui mettent en échec la plupart des techniques de synthèse en laboratoire.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>H%C3%A9mochromatose_de_type_1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Hématologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hémochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9mochromatose_de_type_1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche systématique de la mutation n'est pas recommandée, la pénétrance de la maladie restant faible.
-Quand une hémochromatose est diagnostiquée chez un patient, un bilan martial (dosage du fer sérique, de la transferrine et de la ferritine) est proposé chez les apparentés au premier degré (parents, frères, sœurs et enfants du patient) et peut être étendu éventuellement aux autres membres de la famille. La recherche de la mutation n'est proposée qu'en cas d'anomalie de ce bilan martial[10].
+Quand une hémochromatose est diagnostiquée chez un patient, un bilan martial (dosage du fer sérique, de la transferrine et de la ferritine) est proposé chez les apparentés au premier degré (parents, frères, sœurs et enfants du patient) et peut être étendu éventuellement aux autres membres de la famille. La recherche de la mutation n'est proposée qu'en cas d'anomalie de ce bilan martial.
 Compte tenu de la bénignité de la maladie quand elle est prise en charge, un diagnostic prénatal (jamais dénué de risque) n'est pas justifié.
 </t>
         </is>
